--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -133,10 +133,10 @@
     </r>
   </si>
   <si>
-    <t>Each site page shall use relevant articles written in darker font and displayed next to their corresponding photos.  Currently, photos are placed on a page without corresponding label or reference.  Light font is used on a light gray background which is hard to read.</t>
-  </si>
-  <si>
     <t>Each page shall use consistent line spacing, font size and bold-type font:  double line-spacing between paragraphs, after page titles, and after subheadings; 26pt bold font for page titles and 20pt bold font for subheadings.  Currently, some pages have inconsistent formatting.</t>
+  </si>
+  <si>
+    <t>Each site page shall use relevant articles typed in darker font with higher contrast and displayed next to their corresponding photos.  Currently, photos are placed on a page without corresponding label or reference.  Light font is used on a light gray background which can be difficult to read.</t>
   </si>
 </sst>
 </file>
@@ -259,14 +259,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,24 +768,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -833,11 +833,11 @@
       <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
@@ -850,8 +850,8 @@
       <c r="D6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -863,8 +863,8 @@
       <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -879,8 +879,8 @@
       <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
@@ -892,8 +892,8 @@
       <c r="D9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -908,8 +908,8 @@
       <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -924,8 +924,8 @@
       <c r="D11" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">

--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Assigned to</t>
   </si>
@@ -133,10 +133,13 @@
     </r>
   </si>
   <si>
-    <t>Each page shall use consistent line spacing, font size and bold-type font:  double line-spacing between paragraphs, after page titles, and after subheadings; 26pt bold font for page titles and 20pt bold font for subheadings.  Currently, some pages have inconsistent formatting.</t>
-  </si>
-  <si>
-    <t>Each site page shall use relevant articles typed in darker font with higher contrast and displayed next to their corresponding photos.  Currently, photos are placed on a page without corresponding label or reference.  Light font is used on a light gray background which can be difficult to read.</t>
+    <t>Each site page shall use relevant articles typed in darker font with higher contrast background &amp; displayed next to their corresponding photos.  Currently, photos are placed on a page without corresponding label or reference except when hovering over photos.  Light font is used on a light gray background which can be difficult to read.</t>
+  </si>
+  <si>
+    <t>Website Pages (Content presentation)</t>
+  </si>
+  <si>
+    <t>Each page shall use consistent line spacing, font type/size, and bold-type font that provides better user experience:  double-line spacing between paragraphs, after page titles, and after subheadings; 26pt bold font for page titles and 20pt bold font for subheadings.  Currently, some pages have inconsistent formatting.</t>
   </si>
 </sst>
 </file>
@@ -753,18 +756,20 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
     <col min="3" max="3" width="53.5703125" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1"/>
-    <col min="6" max="6" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
@@ -820,12 +825,12 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="189" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -834,10 +839,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">

--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -24,9 +24,6 @@
     <t>Web App Features</t>
   </si>
   <si>
-    <t>Requirement Description</t>
-  </si>
-  <si>
     <t>Website Pages (Site navigation &amp; content presentation)</t>
   </si>
   <si>
@@ -106,6 +103,15 @@
   </si>
   <si>
     <t>Smithgall Woods' System Requirements List</t>
+  </si>
+  <si>
+    <t>Website Pages (Content presentation)</t>
+  </si>
+  <si>
+    <t>Each page shall use darker font with higher contrast background and consistent line spacing, font type/size, and bold-type font that provides better user experience:  double-line spacing between paragraphs, after page titles, and after subheadings; 26pt bold font for page titles and 20pt bold font for subheadings.  Currently,  light font is used on a light gray background which can be difficult to read. Also, some pages have inconsistent formatting.</t>
+  </si>
+  <si>
+    <t>User Requirement Description</t>
   </si>
   <si>
     <r>
@@ -129,24 +135,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:  Please describe two system requirements for each Web App Feature using detailed descriptions of the proposed website’s functionalities, services and operational constraints.  You may include technical descriptions if necessary.  System requirements describe what the web app should do.  See example below.</t>
+      <t>:  Please describe two system requirements for each User Requirement using sufficient details of the proposed website’s functionalities, services and operational constraints.  You may include technical descriptions if necessary.  System requirements describe what the web app should do.  See example below.</t>
     </r>
   </si>
   <si>
-    <t>Each site page shall use relevant articles typed in darker font with higher contrast background &amp; displayed next to their corresponding photos.  Currently, photos are placed on a page without corresponding label or reference except when hovering over photos.  Light font is used on a light gray background which can be difficult to read.</t>
-  </si>
-  <si>
-    <t>Website Pages (Content presentation)</t>
-  </si>
-  <si>
-    <t>Each page shall use consistent line spacing, font type/size, and bold-type font that provides better user experience:  double-line spacing between paragraphs, after page titles, and after subheadings; 26pt bold font for page titles and 20pt bold font for subheadings.  Currently, some pages have inconsistent formatting.</t>
+    <r>
+      <t xml:space="preserve">Each site page shall display a menu bar with the following headings that contain relevant subheadings to allow users to find information quickly and provide better user experience:  Home, About Smithgall, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Events, Volunteer Opportunities, Contact Us, and Friends Corner.  Currently, several subheadings or topics are grouped under unrelated headings such as About Smithgall, Friends Chapter, etc. which make finding information difficult.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +213,15 @@
       <b/>
       <u/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -457,7 +490,7 @@
   <tableColumns count="6">
     <tableColumn id="1" name="Assigned to" dataDxfId="5"/>
     <tableColumn id="2" name="Web App Features" dataDxfId="4"/>
-    <tableColumn id="3" name="Requirement Description" dataDxfId="3"/>
+    <tableColumn id="3" name="User Requirement Description" dataDxfId="3"/>
     <tableColumn id="6" name="Priority (High/Low)" dataDxfId="2"/>
     <tableColumn id="7" name="System Requirement #1" dataDxfId="1"/>
     <tableColumn id="4" name="System Requirement #2" dataDxfId="0"/>
@@ -774,7 +807,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -784,7 +817,7 @@
     </row>
     <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -800,160 +833,160 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="189" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="6"/>

--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarkwilliams/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Assigned to</t>
   </si>
@@ -165,14 +175,27 @@
       <t>, Events, Volunteer Opportunities, Contact Us, and Friends Corner.  Currently, several subheadings or topics are grouped under unrelated headings such as About Smithgall, Friends Chapter, etc. which make finding information difficult.</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Users will use their accounts to log specific time, date, locations, and tasks performed.  A Smithgall Woods representative will be able to log in and confirm tasks/hours logged.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volunteers will create accounts in which name, date of birth, home address, email, phone numbers will be recorded.  Users will also create a password for their account.  Once accounts are created, a Smithgall Woods representative will validate user by logging into system.  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,7 +284,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -269,40 +292,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,12 +568,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -577,12 +603,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -788,24 +814,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="53.5" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>28</v>
       </c>
@@ -815,7 +841,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
@@ -825,7 +851,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -845,7 +871,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -858,7 +884,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -878,7 +904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,7 +917,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -904,7 +930,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -920,7 +946,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -933,7 +959,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -946,10 +972,14 @@
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -965,7 +995,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -978,7 +1008,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1040,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1022,7 +1052,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarkwilliams/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac185235\Documents\GitHub\MIST7590-Smithgall-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Assigned to</t>
   </si>
@@ -181,11 +181,17 @@
   <si>
     <t xml:space="preserve">Volunteers will create accounts in which name, date of birth, home address, email, phone numbers will be recorded.  Users will also create a password for their account.  Once accounts are created, a Smithgall Woods representative will validate user by logging into system.  </t>
   </si>
+  <si>
+    <t>Images of cottages should be available for the user to look at to determine if it meets their standard. Various images should be included for each state park and a short description of standard cottage features and amenities should be included by each image</t>
+  </si>
+  <si>
+    <t>Details should be provided for each location such as different attractions, land marks, trails, etc. These details may help the user refine their search based on what they are wanting to see</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -321,14 +327,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +512,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -815,43 +824,43 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M10" sqref="M10"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="53.5" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
-    <col min="6" max="6" width="30.5" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -871,7 +880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
@@ -884,7 +893,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="224" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="267.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -904,7 +913,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
@@ -917,7 +926,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -930,7 +939,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -943,10 +952,14 @@
       <c r="D8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="64" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="63" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -959,7 +972,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -972,14 +985,14 @@
       <c r="D10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -995,7 +1008,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1008,7 +1021,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="32" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1052,7 +1065,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/System Requirements List.xlsx
+++ b/System Requirements List.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac185235\Documents\GitHub\MIST7590-Smithgall-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jenelazo\Documents\GitHub\MIST7590-Smithgall-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>Assigned to</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>Details should be provided for each location such as different attractions, land marks, trails, etc. These details may help the user refine their search based on what they are wanting to see</t>
+  </si>
+  <si>
+    <t>Application menu will be formatted for mobile browsers using Bootstrap for ease of viewing and item selection.</t>
+  </si>
+  <si>
+    <t>Application forms will be formatted for mobile browsers using Bootstrap to make data entry easier, including reducing the amount of typing required versus tapping to select an item.</t>
   </si>
 </sst>
 </file>
@@ -827,7 +833,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -1005,8 +1011,12 @@
       <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
